--- a/Mascaras.xlsx
+++ b/Mascaras.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SAC" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ST" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="dadosst" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="dados" sheetId="4" r:id="rId7"/>
+    <sheet name="SAC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ST" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="dadosst" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="dados" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">             Mascaras de atendimento SAC</t>
   </si>
@@ -22,7 +24,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Detalhe: Cliente solicitou troca de titularidade
+    <t xml:space="preserve">Detalhe: Cliente solicitou troca de titularidade
 Solução: Documentos anexados
 Cliente do prazo de 72h úteis
 Novo titular:
@@ -62,16 +64,16 @@
 </t>
   </si>
   <si>
-    <t>SEM AUTENTICAÇÃO</t>
+    <t xml:space="preserve">SEM AUTENTICAÇÃO</t>
   </si>
   <si>
     <t>LENTIDÃO/OSCILAÇÃO</t>
   </si>
   <si>
-    <t>COBRANÇA DE O.S.</t>
+    <t xml:space="preserve">COBRANÇA DE O.S.</t>
   </si>
   <si>
-    <t>LIBERAÇÃO DE PORTA</t>
+    <t xml:space="preserve">LIBERAÇÃO DE PORTA</t>
   </si>
   <si>
     <t xml:space="preserve">LENTIDÃO/OSCILAÇÃO
@@ -104,10 +106,10 @@
 </t>
   </si>
   <si>
-    <t>TROCA DE SENHA</t>
+    <t xml:space="preserve">TROCA DE SENHA</t>
   </si>
   <si>
-    <t>TESTE DE VELOCIDADE</t>
+    <t xml:space="preserve">TESTE DE VELOCIDADE</t>
   </si>
   <si>
     <t>VALIDAÇÕES:</t>
@@ -137,7 +139,7 @@
 </t>
   </si>
   <si>
-    <t>• Sempre via cabo ou 5.8GHz quando wifi;
+    <t xml:space="preserve">• Sempre via cabo ou 5.8GHz quando wifi;
     • APENAS UM APARELHO CONECTADO;
     • ALTERAR CANAL E LARGURA PRA 80MHz;
     • Testar após reiniciar a ONU;</t>
@@ -149,7 +151,7 @@
 </t>
   </si>
   <si>
-    <t>Legenda troca de senha</t>
+    <t xml:space="preserve">Legenda troca de senha</t>
   </si>
   <si>
     <t xml:space="preserve">LIBERAÇÃO DE PORTAS
@@ -231,84 +233,84 @@
     <t>**DÚVIDA**</t>
   </si>
   <si>
-    <t>**COMPROVANTE DE PAGAMENTO**</t>
+    <t xml:space="preserve">**COMPROVANTE DE PAGAMENTO**</t>
   </si>
   <si>
-    <t>**UPGRADE/DOWNGRADE (abrir no fluxo de renovação)</t>
+    <t xml:space="preserve">**UPGRADE/DOWNGRADE (abrir no fluxo de renovação)</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial Nova Cond"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Detalhe</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial Nova Cond"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">: Cliente entrou em contato pelo plataforma chat/voz, solicitando boleto
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial Nova Cond"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Solução</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial Nova Cond"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
-      <t>: Boleto referente a 14/03, enviado via e-mail-chat-whatsapp
+      <t xml:space="preserve">: Boleto referente a 14/03, enviado via e-mail-chat-whatsapp
 Orietado o pagamento com pix e acesso a central do assinante.</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Detalhe</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">: Cliente entrou em contato solicitando o desbloqueio
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Solução</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
-      <t>: Primeiro/Segundo desbloqueio. Comprovante recebido.
+      <t xml:space="preserve">: Primeiro/Segundo desbloqueio. Comprovante recebido.
 Ciente do prazo de 48h e que o segundo desbloqueio só será possível mediante envio do comprovante de pagamento.
 Boleto referente ao vencimento 14/03 realizado</t>
     </r>
@@ -320,11 +322,11 @@
 Solução 2: Informado dia e perído (21/04/2023 no período da tarde) da realização da visita </t>
   </si>
   <si>
-    <t>Detalhe: Cliente enviou o comprovante de pagamento
+    <t xml:space="preserve">Detalhe: Cliente enviou o comprovante de pagamento
 Solução: Comprovante ref ao vencimento 14/04 recebido</t>
   </si>
   <si>
-    <t>Detalhe: Cliente solicitou alteração do seu plano
+    <t xml:space="preserve">Detalhe: Cliente solicitou alteração do seu plano
 Solução: Contrato renovado para o plano de 300MB, pagando R$79,90.
 Data de vencimento: 14 (de acordo com a solicitação)
 Ciente da fidelidade
@@ -332,27 +334,27 @@
 A multa do downgrade, é a metade do valor da multa da rescisão contratual</t>
   </si>
   <si>
-    <t>**ALTERAÇÃO DO TIPO DE PAGAMENTO**</t>
+    <t xml:space="preserve">**ALTERAÇÃO DO TIPO DE PAGAMENTO**</t>
   </si>
   <si>
-    <t>**SUSPENSÃO DE CONTRATO/ATIVAÇÃO**</t>
+    <t xml:space="preserve">**SUSPENSÃO DE CONTRATO/ATIVAÇÃO**</t>
   </si>
   <si>
     <t>**SVAs**</t>
   </si>
   <si>
-    <t>**INDICAÇÃO DE AMIGO**</t>
+    <t xml:space="preserve">**INDICAÇÃO DE AMIGO**</t>
   </si>
   <si>
-    <t>**TROCA DE TITULARIDADE**</t>
+    <t xml:space="preserve">**TROCA DE TITULARIDADE**</t>
   </si>
   <si>
-    <t>Detalhe: Cliente solicitou alteração do tipo de pagamento de cartão para boleto
+    <t xml:space="preserve">Detalhe: Cliente solicitou alteração do tipo de pagamento de cartão para boleto
 Solução: Tipo de pagamento alterado.
 Cliente ciente que a alteração só vai ocorrer no mês seguinte.</t>
   </si>
   <si>
-    <t>Detalhe 1: Cliente pediu a suspensão do contrato
+    <t xml:space="preserve">Detalhe 1: Cliente pediu a suspensão do contrato
 Detalhe 2: Cliente com contrato cancelado, pede reativação
 Solução 1: Informado que só poderá realizar a cada 12 meses
 Ciente dos prazos (30, 60, 90 e 120 dias) e do proporcional de uso
@@ -363,7 +365,7 @@
 Se o cliente não autenticar, enviado para o nível 2, pois o equipamento vai está desprovisionado.</t>
   </si>
   <si>
-    <t>Detalhe: Cliente solicita a chave Deezer/HBO/LOOKE
+    <t xml:space="preserve">Detalhe: Cliente solicita a chave Deezer/HBO/LOOKE
 Solução: Ciente do prazo e de como realizar o acesso.
 Deezer: recebimento do SMS
 LOOKE e HBO: Envio do e-mail com o manual</t>
@@ -375,22 +377,22 @@
 OBS.: abrir atendimento também do amigo indicado e informar o nome do amigo que indicou </t>
   </si>
   <si>
-    <t>**MUDANÇA DE ENDEREÇO**</t>
+    <t xml:space="preserve">**MUDANÇA DE ENDEREÇO**</t>
   </si>
   <si>
-    <t>**MUDANÇA DE LOCAL**</t>
+    <t xml:space="preserve">**MUDANÇA DE LOCAL**</t>
   </si>
   <si>
-    <t>**ALTERAÇÃO DO VENCIMENTO**</t>
+    <t xml:space="preserve">**ALTERAÇÃO DO VENCIMENTO**</t>
   </si>
   <si>
-    <t>**INVERSÃO DE PAGAMENTO**</t>
+    <t xml:space="preserve">**INVERSÃO DE PAGAMENTO**</t>
   </si>
   <si>
     <t>**ESTORNO**</t>
   </si>
   <si>
-    <t>Detalhe: Cliente deseja realizar a mudança de endereço
+    <t xml:space="preserve">Detalhe: Cliente deseja realizar a mudança de endereço
 Endereço Antigo: 
 Endereço Novo: 
 Solução: Solicitado que levasse o equipamento para o novo endereço
@@ -406,7 +408,7 @@
 Telefone: </t>
   </si>
   <si>
-    <t>Detalhe: Cliente solicita alteração da data de vencimento. 
+    <t xml:space="preserve">Detalhe: Cliente solicita alteração da data de vencimento. 
 Solução: Alterar o vencimento para nova data 07/10/14.
 Cliente ciente que a alteração só vai ocorrer no mês seguinte.</t>
   </si>
@@ -416,7 +418,7 @@
 Cliente ciente do prazo </t>
   </si>
   <si>
-    <t>(Em casos de desconto sem conexão, informar os dias que o cliente perdeu o acesso e o mês de ref.)
+    <t xml:space="preserve">(Em casos de desconto sem conexão, informar os dias que o cliente perdeu o acesso e o mês de ref.)
 Detalhe 1: Cliente informa que o boleto está divergente com o valor do contrato
 Detalhe 2: Cliente informa que foi concedido o desconto no boleto, porém não foi aplicado.
 Solução 1: Estornar boleto e corrigir o valor do contrato 
@@ -426,19 +428,19 @@
 valor: R$79,90</t>
   </si>
   <si>
-    <t>**NOTA FISCAL*</t>
+    <t xml:space="preserve">**NOTA FISCAL*</t>
   </si>
   <si>
     <t>**NEGOCIAÇÃO**</t>
   </si>
   <si>
-    <t>**DUPLICIDADE DE PAGAMENTO**</t>
+    <t xml:space="preserve">**DUPLICIDADE DE PAGAMENTO**</t>
   </si>
   <si>
-    <t>**BAIXA NÃO REALIZADA</t>
+    <t xml:space="preserve">**BAIXA NÃO REALIZADA</t>
   </si>
   <si>
-    <t>Detalhe: Cliente deseja a NF do mês de Maio
+    <t xml:space="preserve">Detalhe: Cliente deseja a NF do mês de Maio
 Solução: Verificado na central do assinante e não consta no sistema
 e-mail:
 Cliente ciente do prazo de 5 dias úteis para lançamento e envio da nota</t>
@@ -449,7 +451,7 @@
 Telefone: </t>
   </si>
   <si>
-    <t>Detalhe: Cliente pagou duas vezes o boleto com vendimento 14/02
+    <t xml:space="preserve">Detalhe: Cliente pagou duas vezes o boleto com vendimento 14/02
 Solução 1: Comprovantes anexados no sistema
 Cliente deseja que o próximo boleto seja liquidado.
 Solução 2: Comprovantes anexados no sistema
@@ -461,17 +463,17 @@
 Op.:</t>
   </si>
   <si>
-    <t>Baixa não realizada de pagamento
+    <t xml:space="preserve">Baixa não realizada de pagamento
 Detalhe: Cliente realizou o pagamento via pix (se for o caso), porém ainda consta em aberto no sistema.
 Solução: Comprovante de pagamento referente ao boleto com vencimento 14/04 anexado.
 Constam mais de 7 dias da realização do pagamento.
 Dados confirmados, favor baixar o boleto em questão</t>
   </si>
   <si>
-    <t>RETORNO DE CONTRATO</t>
+    <t xml:space="preserve">RETORNO DE CONTRATO</t>
   </si>
   <si>
-    <t>(o retorno de contrato é feito pelo setor de retenção)
+    <t xml:space="preserve">(o retorno de contrato é feito pelo setor de retenção)
 Detalhe: Cliente foi renovado para o plano de 300MB, porém não tem viabilidade para fibra
 Solução: Retornar o plano para 4MB, pois a rede do cliente não atende a nova velocidade</t>
   </si>
@@ -479,84 +481,84 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="23">
     <font>
-      <sz val="11.0"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24.000000"/>
       <color rgb="FF385623"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24.000000"/>
       <color rgb="FFC5E0B3"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24.000000"/>
       <color rgb="FF385623"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24.000000"/>
       <color rgb="FFC5E0B3"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11.000000"/>
       <color rgb="FFC5E0B3"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="21.0"/>
+      <sz val="21.000000"/>
       <color rgb="FF274E13"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14.000000"/>
       <color rgb="FF385623"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="22.0"/>
+      <sz val="22.000000"/>
       <color rgb="FF274E13"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12.000000"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15.000000"/>
       <color rgb="FFC5E0B3"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15.000000"/>
       <color rgb="FF395624"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
+      <sz val="9.000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="7.0"/>
+      <sz val="7.000000"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -573,33 +575,33 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Arial Nova Cond"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -608,7 +610,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -624,377 +626,330 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="65"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor indexed="52"/>
+        <bgColor indexed="52"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
-    <border/>
+  <borders count="17">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
+      <right style="none"/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
+      <top style="none"/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-    </border>
-    <border>
-      <left/>
-      <top/>
-      <bottom/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF274E13"/>
       </left>
+      <right style="none"/>
       <top style="thin">
         <color rgb="FF274E13"/>
       </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color rgb="FF274E13"/>
       </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
       <right style="thin">
         <color rgb="FF274E13"/>
       </right>
       <top style="thin">
         <color rgb="FF274E13"/>
       </top>
-    </border>
-    <border>
-      <top/>
-    </border>
-    <border>
-      <right/>
-      <top style="thin">
-        <color rgb="FF274E13"/>
-      </top>
-    </border>
-    <border>
-      <right/>
-      <top/>
-      <bottom/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF274E13"/>
       </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
       <right style="thin">
         <color rgb="FF274E13"/>
       </right>
-    </border>
-    <border>
-      <right/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF274E13"/>
       </left>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color rgb="FF274E13"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color rgb="FF274E13"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
       <right style="thin">
         <color rgb="FF274E13"/>
       </right>
+      <top style="none"/>
       <bottom style="thin">
         <color rgb="FF274E13"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF274E13"/>
-      </left>
-      <bottom/>
-    </border>
-    <border>
-      <bottom/>
-    </border>
-    <border>
-      <right/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <bottom/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="77">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="56">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="6" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf fontId="7" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf fontId="8" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf fontId="9" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="26" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="10" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="11" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="12" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="13" fillId="4" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="14" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="9" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="9" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="15" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="15" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="17" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="17" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf fontId="17" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="18" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf fontId="17" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf fontId="21" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="17" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf fontId="17" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf fontId="22" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf fontId="16" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1002,42 +957,42 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2114550" cy="590550"/>
+    <xdr:ext cx="2114550" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1045,12 +1000,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Boleto</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1066,10 +1022,10 @@
     <xdr:ext cx="4371975" cy="2305050"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Desenho"/>
+        <xdr:cNvPr id="0" name=""/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+      <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="4360000" cy="2036300"/>
@@ -1082,7 +1038,7 @@
           <xdr:cNvPr id="4" name="Shape 4"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
-        <xdr:spPr>
+        <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="1360000" y="1636100"/>
             <a:ext cx="3000000" cy="400200"/>
@@ -1093,15 +1049,16 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:miter/>
           </a:ln>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="t" anchorCtr="0">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:pPr marL="0" lvl="0" indent="0" algn="l">
               <a:spcBef>
                 <a:spcPts val="0"/>
               </a:spcBef>
@@ -1109,6 +1066,7 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:buNone/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
@@ -1123,7 +1081,7 @@
           <xdr:cNvPr id="5" name="Shape 5"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
-        <xdr:spPr>
+        <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="0" y="0"/>
             <a:ext cx="3000000" cy="400200"/>
@@ -1137,12 +1095,12 @@
           </a:ln>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="t" anchorCtr="0">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:pPr marL="0" lvl="0" indent="0" algn="l">
               <a:spcBef>
                 <a:spcPts val="0"/>
               </a:spcBef>
@@ -1150,6 +1108,7 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:buNone/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
@@ -1169,42 +1128,42 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1212,12 +1171,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Duvidas</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1230,42 +1190,42 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Shape 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1273,12 +1233,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Desbloqueio</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1291,42 +1252,42 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Shape 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1334,12 +1295,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1500"/>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
             <a:t>Aviso de pagamento</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1500"/>
+          <a:endParaRPr sz="1500" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1352,42 +1314,42 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Shape 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1395,12 +1357,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>SVAs</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1413,42 +1376,42 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Shape 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1456,12 +1419,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Supensão</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1470,46 +1434,46 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Shape 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1517,12 +1481,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Upgrade</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1535,42 +1500,42 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Shape 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1578,12 +1543,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Alterar forma de pagamento</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1596,42 +1562,42 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Shape 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1639,12 +1605,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Troca de Titularidade</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1657,42 +1624,42 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="Shape 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1700,12 +1667,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Indicação de amigo</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1714,46 +1682,46 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Shape 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1761,12 +1729,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Estono</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1779,42 +1748,42 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Shape 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1822,12 +1791,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Inversão pagamento</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1840,42 +1810,42 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Shape 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1883,12 +1853,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Alteração de vencimento</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1901,42 +1872,42 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Shape 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1944,12 +1915,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Mudança interna</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1958,46 +1930,46 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Shape 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2005,12 +1977,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Mudança de endereço</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2023,42 +1996,42 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="Shape 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2066,12 +2039,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Negociação</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2084,42 +2058,42 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="Shape 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2127,12 +2101,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Nota Fiscal</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2145,42 +2120,42 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Shape 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2188,12 +2163,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Duplicidade pagamento</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2206,42 +2182,42 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1533525" cy="400050"/>
+    <xdr:ext cx="1533524" cy="400050"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="Shape 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1339550" y="1666775"/>
           <a:ext cx="2842800" cy="736200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 16667" name="adj"/>
+            <a:gd name="adj" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2249,12 +2225,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="2200"/>
+            <a:rPr lang="en-US" sz="2200" b="1"/>
             <a:t>Resultado</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="2400"/>
+          <a:endParaRPr sz="2400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2267,42 +2244,42 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="Shape 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2310,12 +2287,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400"/>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
             <a:t>Pagamento com baixa não realizada</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1400"/>
+          <a:endParaRPr sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2328,42 +2306,42 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="590550"/>
+    <xdr:ext cx="2057400" cy="590549"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="Shape 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1697450" y="1206625"/>
           <a:ext cx="2034900" cy="572700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32142" name="adj"/>
+            <a:gd name="adj" fmla="val 32142"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2371,12 +2349,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1600"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Retorno de contrato</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1600"/>
+          <a:endParaRPr sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2385,7 +2364,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2393,15 +2372,17 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="Imagem"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -2414,11 +2395,11 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
@@ -2428,36 +2409,36 @@
         <xdr:cNvPr id="26" name="Shape 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2680950" y="1877675"/>
           <a:ext cx="2379900" cy="622500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32148" name="adj"/>
+            <a:gd name="adj" fmla="val 32148"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2465,12 +2446,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400"/>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
             <a:t>Sem autenticação</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1400"/>
+          <a:endParaRPr sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2479,7 +2461,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
@@ -2489,36 +2471,36 @@
         <xdr:cNvPr id="27" name="Shape 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2680950" y="1877675"/>
           <a:ext cx="2379900" cy="622500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32148" name="adj"/>
+            <a:gd name="adj" fmla="val 32148"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2526,12 +2508,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400"/>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
             <a:t>Cobrança de O.S</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1400"/>
+          <a:endParaRPr sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2540,7 +2523,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
@@ -2550,36 +2533,36 @@
         <xdr:cNvPr id="28" name="Shape 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2680950" y="1877675"/>
           <a:ext cx="2379900" cy="622500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32148" name="adj"/>
+            <a:gd name="adj" fmla="val 32148"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2587,12 +2570,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400"/>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
             <a:t>Lentidão/Oscilação</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1400"/>
+          <a:endParaRPr sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2601,7 +2585,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
@@ -2611,36 +2595,36 @@
         <xdr:cNvPr id="29" name="Shape 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2680950" y="1877675"/>
           <a:ext cx="2379900" cy="622500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32148" name="adj"/>
+            <a:gd name="adj" fmla="val 32148"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2648,12 +2632,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400"/>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
             <a:t>Troca de senha</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1400"/>
+          <a:endParaRPr sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2662,7 +2647,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
@@ -2672,36 +2657,36 @@
         <xdr:cNvPr id="30" name="Shape 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2680950" y="1877675"/>
           <a:ext cx="2379900" cy="622500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32148" name="adj"/>
+            <a:gd name="adj" fmla="val 32148"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2709,12 +2694,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400"/>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
             <a:t>Teste de velocidade</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1400"/>
+          <a:endParaRPr sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2733,38 +2719,38 @@
         <xdr:cNvPr id="31" name="Shape 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2800350" y="1140800"/>
           <a:ext cx="4152900" cy="2081400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd fmla="val -3936" name="adj1"/>
-            <a:gd fmla="val 69716" name="adj2"/>
-            <a:gd fmla="val 0" name="adj3"/>
+            <a:gd name="adj1" fmla="val -3936"/>
+            <a:gd name="adj2" fmla="val 69716"/>
+            <a:gd name="adj3" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="457200" rtl="0" algn="l">
+          <a:pPr marL="457200" lvl="0" indent="0" algn="l">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2772,15 +2758,16 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>Sobre Testes de velocidade e verificações:</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1100"/>
+          <a:endParaRPr sz="1100" b="1"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="457200" rtl="0" algn="l">
+          <a:pPr marL="457200" lvl="0" indent="0" algn="l">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2788,14 +2775,12 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+          <a:pPr marL="457200" lvl="0" indent="-298450" algn="l">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2804,6 +2789,7 @@
             </a:spcAft>
             <a:buSzPts val="1100"/>
             <a:buChar char="●"/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
@@ -2820,7 +2806,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+          <a:pPr marL="457200" lvl="0" indent="-298450" algn="l">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2829,6 +2815,7 @@
             </a:spcAft>
             <a:buSzPts val="1100"/>
             <a:buChar char="●"/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
@@ -2837,7 +2824,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+          <a:pPr marL="457200" lvl="0" indent="-298450" algn="l">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2846,6 +2833,7 @@
             </a:spcAft>
             <a:buSzPts val="1100"/>
             <a:buChar char="●"/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
@@ -2854,7 +2842,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="-298450" lvl="0" marL="457200" rtl="0" algn="l">
+          <a:pPr marL="457200" lvl="0" indent="-298450" algn="l">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2863,6 +2851,7 @@
             </a:spcAft>
             <a:buSzPts val="1100"/>
             <a:buChar char="●"/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
@@ -2881,42 +2870,42 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>523875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1238250" cy="295275"/>
+    <xdr:ext cx="1238250" cy="295274"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="Shape 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1339550" y="1666775"/>
           <a:ext cx="2842800" cy="736200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 16667" name="adj"/>
+            <a:gd name="adj" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2924,12 +2913,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="2200"/>
+            <a:rPr lang="en-US" sz="2200" b="1"/>
             <a:t>Resultado</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="2400"/>
+          <a:endParaRPr sz="2400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2938,7 +2928,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
@@ -2948,36 +2938,36 @@
         <xdr:cNvPr id="33" name="Shape 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2680950" y="1877675"/>
           <a:ext cx="2379900" cy="622500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32148" name="adj"/>
+            <a:gd name="adj" fmla="val 32148"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2985,12 +2975,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400"/>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
             <a:t>Liberação de portas</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1400"/>
+          <a:endParaRPr sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2999,7 +2990,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
@@ -3009,36 +3000,36 @@
         <xdr:cNvPr id="34" name="Shape 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2680950" y="1877675"/>
           <a:ext cx="2379900" cy="622500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 32148" name="adj"/>
+            <a:gd name="adj" fmla="val 32148"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -3046,12 +3037,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400"/>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
             <a:t>Upgrade</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="1400"/>
+          <a:endParaRPr sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3064,42 +3056,42 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>523875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1333500" cy="295275"/>
+    <xdr:ext cx="1333500" cy="295274"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="Shape 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1339550" y="1666775"/>
           <a:ext cx="2842800" cy="736200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 16667" name="adj"/>
+            <a:gd name="adj" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -3107,12 +3099,13 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="2200"/>
+            <a:rPr lang="en-US" sz="2200" b="1"/>
             <a:t>Legenda</a:t>
           </a:r>
-          <a:endParaRPr b="1" sz="2400"/>
+          <a:endParaRPr sz="2400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3125,19 +3118,21 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="628650" cy="714375"/>
+    <xdr:ext cx="628649" cy="714375"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image4.png" title="Imagem"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -3157,15 +3152,17 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image2.png" title="Imagem"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -3181,19 +3178,21 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="314325" cy="371475"/>
+    <xdr:ext cx="314324" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image3.png" title="Imagem"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -3206,17 +3205,13 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
+      <xdr:rowOff>495299</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2143125" cy="3810000"/>
     <xdr:sp>
@@ -3224,7 +3219,7 @@
         <xdr:cNvPr id="37" name="Shape 37"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4279200" y="1879763"/>
           <a:ext cx="2133600" cy="3800475"/>
@@ -3235,23 +3230,23 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="BABABA"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -3259,10 +3254,8 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:buNone/>
+            <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3272,8 +3265,291 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3330,7 +3606,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -3356,7 +3632,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -3408,16 +3684,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -3433,7 +3721,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -3463,22 +3751,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-    <pageSetUpPr/>
+    <tabColor indexed="3"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.29"/>
-    <col customWidth="1" min="2" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="39.289999999999999"/>
+    <col customWidth="1" min="2" max="26" width="8.7100000000000009"/>
   </cols>
   <sheetData>
     <row r="1" ht="60.75" customHeight="1">
@@ -3602,7 +3894,7 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3611,8 +3903,8 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="17"/>
-      <c r="O5" s="18"/>
+      <c r="J5" s="16"/>
+      <c r="O5" s="17"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -3635,8 +3927,8 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="17"/>
-      <c r="O6" s="18"/>
+      <c r="J6" s="16"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -3659,8 +3951,8 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="17"/>
-      <c r="O7" s="18"/>
+      <c r="J7" s="16"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="6"/>
@@ -3683,8 +3975,8 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="17"/>
-      <c r="O8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -3697,7 +3989,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" ht="9.0" customHeight="1">
+    <row r="9" ht="9" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3707,8 +3999,8 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="17"/>
-      <c r="O9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -3731,8 +4023,8 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="17"/>
-      <c r="O10" s="18"/>
+      <c r="J10" s="16"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -3755,8 +4047,8 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="17"/>
-      <c r="O11" s="18"/>
+      <c r="J11" s="16"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -3769,7 +4061,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" ht="3.0" customHeight="1">
+    <row r="12" ht="3" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3779,8 +4071,8 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="17"/>
-      <c r="O12" s="18"/>
+      <c r="J12" s="16"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -3803,8 +4095,8 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="17"/>
-      <c r="O13" s="18"/>
+      <c r="J13" s="16"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
@@ -3827,8 +4119,8 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="17"/>
-      <c r="O14" s="18"/>
+      <c r="J14" s="16"/>
+      <c r="O14" s="17"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
@@ -3848,11 +4140,11 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="17"/>
-      <c r="O15" s="18"/>
+      <c r="J15" s="16"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -3875,8 +4167,8 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="17"/>
-      <c r="O16" s="18"/>
+      <c r="J16" s="16"/>
+      <c r="O16" s="17"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
@@ -3899,8 +4191,8 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="17"/>
-      <c r="O17" s="18"/>
+      <c r="J17" s="16"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="7" t="s">
         <v>3</v>
       </c>
@@ -3925,8 +4217,8 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="17"/>
-      <c r="O18" s="18"/>
+      <c r="J18" s="16"/>
+      <c r="O18" s="17"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -3949,8 +4241,8 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="17"/>
-      <c r="O19" s="18"/>
+      <c r="J19" s="16"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -3973,8 +4265,8 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="17"/>
-      <c r="O20" s="18"/>
+      <c r="J20" s="16"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -3997,8 +4289,8 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="17"/>
-      <c r="O21" s="18"/>
+      <c r="J21" s="16"/>
+      <c r="O21" s="17"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -4021,8 +4313,8 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="17"/>
-      <c r="O22" s="18"/>
+      <c r="J22" s="16"/>
+      <c r="O22" s="17"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -4045,8 +4337,8 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="17"/>
-      <c r="O23" s="18"/>
+      <c r="J23" s="16"/>
+      <c r="O23" s="17"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -4069,8 +4361,8 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="17"/>
-      <c r="O24" s="18"/>
+      <c r="J24" s="16"/>
+      <c r="O24" s="17"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
@@ -4093,12 +4385,12 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -4588,7 +4880,7 @@
       <c r="Z42" s="6"/>
     </row>
     <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="22"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -4616,7 +4908,7 @@
       <c r="Z43" s="6"/>
     </row>
     <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -4644,7 +4936,7 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="24"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -31415,34 +31707,61 @@
   <mergeCells count="1">
     <mergeCell ref="J4:O25"/>
   </mergeCells>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="notContainsBlanks" priority="1" id="{00700011-006C-40B4-B9C9-00FD005200CE}">
+            <xm:f>LEN(TRIM(D25))&gt;0</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB7E1CD"/>
+                  <bgColor rgb="FFB7E1CD"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left/>
+                <right/>
+                <top/>
+                <bottom/>
+                <diagonal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <tabColor indexed="2"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.29"/>
-    <col customWidth="1" min="2" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="39.289999999999999"/>
+    <col customWidth="1" min="2" max="26" width="8.7100000000000009"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.0" customHeight="1">
+    <row r="1" ht="48" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -31472,7 +31791,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" ht="21.0" customHeight="1">
+    <row r="2" ht="21" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -31482,17 +31801,17 @@
         <v>1</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="8"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="25"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
@@ -31503,31 +31822,31 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="27"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="29" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="34"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -31543,13 +31862,13 @@
       <c r="D4" s="6"/>
       <c r="E4" s="12"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="35"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="34"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="28"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -31559,19 +31878,19 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="35"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="34"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="28"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -31587,13 +31906,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="35"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="35"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="34"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="28"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -31609,13 +31928,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="35"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="34"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="28"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -31631,13 +31950,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="35"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="35"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="34"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="28"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -31646,7 +31965,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" ht="9.0" customHeight="1">
+    <row r="9" ht="9" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -31654,11 +31973,11 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="35"/>
-      <c r="R9" s="38"/>
+      <c r="H9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="28"/>
+      <c r="R9" s="31"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -31676,11 +31995,11 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="35"/>
-      <c r="R10" s="38"/>
+      <c r="H10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="28"/>
+      <c r="R10" s="31"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -31698,11 +32017,11 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="35"/>
-      <c r="R11" s="38"/>
+      <c r="H11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="28"/>
+      <c r="R11" s="31"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -31712,7 +32031,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" ht="3.0" customHeight="1">
+    <row r="12" ht="3" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -31720,11 +32039,11 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="35"/>
-      <c r="R12" s="38"/>
+      <c r="H12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="28"/>
+      <c r="R12" s="31"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -31742,17 +32061,17 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="45"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -31771,14 +32090,14 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="47"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -31797,16 +32116,16 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="34"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -31827,14 +32146,14 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="34"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -31855,14 +32174,14 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="49" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="6"/>
@@ -31885,14 +32204,14 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="34"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -31913,14 +32232,14 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="34"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
@@ -31941,14 +32260,14 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="34"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -31969,14 +32288,14 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="34"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -31997,14 +32316,14 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="34"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
@@ -32025,14 +32344,14 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="34"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
@@ -32053,14 +32372,14 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="34"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -32081,14 +32400,14 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="34"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
@@ -32110,12 +32429,12 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -32577,7 +32896,7 @@
       <c r="Z42" s="6"/>
     </row>
     <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="22"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -32605,7 +32924,7 @@
       <c r="Z43" s="6"/>
     </row>
     <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -32633,7 +32952,7 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="24"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -59405,620 +59724,656 @@
     <mergeCell ref="H3:L13"/>
     <mergeCell ref="N3:R13"/>
   </mergeCells>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="notContainsBlanks" priority="1" id="{00FD002E-00F2-4C71-B0DB-001400C60029}">
+            <xm:f>LEN(TRIM(D25))&gt;0</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB7E1CD"/>
+                  <bgColor rgb="FFB7E1CD"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left/>
+                <right/>
+                <top/>
+                <bottom/>
+                <diagonal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="39.43"/>
     <col customWidth="1" min="2" max="2" width="45.43"/>
-    <col customWidth="1" min="3" max="3" width="46.29"/>
-    <col customWidth="1" min="4" max="4" width="39.71"/>
-    <col customWidth="1" min="5" max="5" width="43.0"/>
-    <col customWidth="1" min="6" max="6" width="40.14"/>
+    <col customWidth="1" min="3" max="3" width="46.289999999999999"/>
+    <col customWidth="1" min="4" max="4" width="39.710000000000001"/>
+    <col customWidth="1" min="5" max="5" width="43"/>
+    <col customWidth="1" min="6" max="6" width="40.140000000000001"/>
     <col customWidth="1" min="7" max="7" width="41.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
     </row>
     <row r="2" ht="219.75" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
     </row>
     <row r="3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-    </row>
-    <row r="4" ht="153.0" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+    </row>
+    <row r="4" ht="153" customHeight="1">
+      <c r="A4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-    </row>
-    <row r="5" ht="21.0" customHeight="1">
-      <c r="A5" s="55" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
     </row>
     <row r="6">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.29"/>
-    <col customWidth="1" min="2" max="2" width="42.0"/>
+    <col customWidth="1" min="1" max="1" width="44.289999999999999"/>
+    <col customWidth="1" min="2" max="2" width="42"/>
     <col customWidth="1" min="3" max="3" width="49.57"/>
-    <col customWidth="1" min="4" max="4" width="46.14"/>
+    <col customWidth="1" min="4" max="4" width="46.140000000000001"/>
     <col customWidth="1" min="5" max="5" width="58.57"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col customWidth="1" min="6" max="26" width="8.7100000000000009"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
     </row>
     <row r="3" ht="198.75" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+    </row>
+    <row r="5" ht="299.25">
+      <c r="A5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+    </row>
+    <row r="7" ht="242.25">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="72" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+    </row>
+    <row r="9" ht="185.25">
+      <c r="A9" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="54" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="76" t="s">
+    <row r="11" ht="15">
+      <c r="A11" s="55" t="s">
         <v>73</v>
       </c>
     </row>
@@ -61012,9 +61367,10 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup orientation="landscape"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>